--- a/biology/Médecine/Unité_de_recherche_et_de_soin_en_alcoologie/Unité_de_recherche_et_de_soin_en_alcoologie.xlsx
+++ b/biology/Médecine/Unité_de_recherche_et_de_soin_en_alcoologie/Unité_de_recherche_et_de_soin_en_alcoologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Unit%C3%A9_de_recherche_et_de_soin_en_alcoologie</t>
+          <t>Unité_de_recherche_et_de_soin_en_alcoologie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Unité de recherche et de soin en alcoologie (URSA) est une association fondée en 1984 par le Dr Hélène Niox-Rivière qui avait succédé au Dr Michel Haas à la tête du service d'alcoologie de l'hôpital de Saint-Cloud.
-En 2011, le service d'alcoologie et l'URSA ont été transférés à l'hôpital Jean-Rostand, à Sèvres[1]. 
-La principale activité de l'URSA est l'Accueil[1]. 
-L'URSA publie un semestriel, Le Papier de Verre, 56 numéros parus en mai 2021,  plus six numéros spéciaux[1]. 
-Membre de la Société française d'alcoologie, l'URSA travaille en étroite association avec les autres groupes d'entraide, Mouvement Vie Libre, Alcooliques anonymes, Croix d'Or, Alcool Ecoute Joie et Santé, Croix-Bleue[1]...
+En 2011, le service d'alcoologie et l'URSA ont été transférés à l'hôpital Jean-Rostand, à Sèvres. 
+La principale activité de l'URSA est l'Accueil. 
+L'URSA publie un semestriel, Le Papier de Verre, 56 numéros parus en mai 2021,  plus six numéros spéciaux. 
+Membre de la Société française d'alcoologie, l'URSA travaille en étroite association avec les autres groupes d'entraide, Mouvement Vie Libre, Alcooliques anonymes, Croix d'Or, Alcool Ecoute Joie et Santé, Croix-Bleue...
 </t>
         </is>
       </c>
